--- a/invoices/Company FHG.xlsx
+++ b/invoices/Company FHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4045E5C4-CEC5-4CDC-9B4A-3809098BFAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2695C283-8E54-4576-B109-EFB997D2A394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{6A02F20D-76CE-4FAC-B7FD-D5AE497108D0}"/>
+    <workbookView xWindow="29970" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{203842A5-1341-4609-97DF-E3EBB78E2DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Company FHG-71" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CCB4BF-7F72-4C45-8DC4-25705A3FEBB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16B6F36-4769-471D-83D0-8E453CC5A96F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF54A9-22D4-4329-8218-2FEE8A616C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5102F6-1EC5-40E2-9FED-D7A62F7DC08B}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1627,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4297,7 +4297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FEEEA9-1FE6-40D4-A6F2-2B738F0DABBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB16581-672B-4627-B520-62011AF3D26B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/invoices/Company FHG.xlsx
+++ b/invoices/Company FHG.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2695C283-8E54-4576-B109-EFB997D2A394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{423D7FD3-E478-4485-BD4F-BDBA1C81C356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{203842A5-1341-4609-97DF-E3EBB78E2DA7}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{02C0819A-BA37-45C9-BAFB-658A68AD46F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Company FHG-71" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16B6F36-4769-471D-83D0-8E453CC5A96F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB234D9-1015-4A6C-B882-AEB28E189116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,9 +693,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5102F6-1EC5-40E2-9FED-D7A62F7DC08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E269E-37C0-4942-A885-EA9FC6B78CD7}">
   <sheetPr codeName="Sheet7">
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4297,8 +4297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB16581-672B-4627-B520-62011AF3D26B}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31FB4C-986D-417F-AFE4-7CAF4B9C3DF2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company FHG.xlsx
+++ b/invoices/Company FHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{423D7FD3-E478-4485-BD4F-BDBA1C81C356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F792AAF1-EB1B-4051-AF66-9776054ECCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{02C0819A-BA37-45C9-BAFB-658A68AD46F1}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{4D54024F-CA44-450C-8930-BC65D1AAD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Company FHG-71" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB234D9-1015-4A6C-B882-AEB28E189116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49B5E07-CB35-4462-A111-24E09F9CCEDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,14 +693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E269E-37C0-4942-A885-EA9FC6B78CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2060C5-F01B-41D1-BC8D-0BE0472C7530}">
   <sheetPr codeName="Sheet7">
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4297,7 +4297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31FB4C-986D-417F-AFE4-7CAF4B9C3DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D160FB-12EE-4F7C-A468-CBFA9DC4580D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company FHG.xlsx
+++ b/invoices/Company FHG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F792AAF1-EB1B-4051-AF66-9776054ECCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1BFA68-0E1F-47B9-8991-43E6133A6DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{4D54024F-CA44-450C-8930-BC65D1AAD4E2}"/>
+    <workbookView xWindow="29970" yWindow="885" windowWidth="21045" windowHeight="15495" xr2:uid="{A5B40251-4467-4F08-AC14-A71B3F07EEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Company FHG-71" sheetId="2" r:id="rId1"/>
@@ -318,22 +318,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49B5E07-CB35-4462-A111-24E09F9CCEDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A5659A-8D45-4EBB-BA14-CA7082641C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -355,8 +355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="742950"/>
-          <a:ext cx="2000250" cy="973667"/>
+          <a:off x="482600" y="911226"/>
+          <a:ext cx="2000250" cy="974725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -693,14 +693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2060C5-F01B-41D1-BC8D-0BE0472C7530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632066DB-ECE6-4F4F-86D3-CF60E3821F98}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1627,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44149</v>
+        <v>44153</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4292,12 +4292,13 @@
     <mergeCell ref="C45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D160FB-12EE-4F7C-A468-CBFA9DC4580D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296E6AF0-9329-45C3-8974-045146CEBBDD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
